--- a/experiment/Experiment Record.xlsx
+++ b/experiment/Experiment Record.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="MRR" sheetId="2" r:id="rId2"/>
     <sheet name="score2" sheetId="3" r:id="rId3"/>
+    <sheet name="auto evalulation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>vote/603,604</t>
   </si>
@@ -708,13 +709,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1073,8 +1074,8 @@
   <sheetPr/>
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1124,10 +1125,10 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
@@ -1205,12 +1206,12 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="3">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B3" s="2">
         <v>602</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>603</v>
       </c>
       <c r="D3" s="2">
@@ -1225,7 +1226,7 @@
       <c r="G3" s="2">
         <v>403</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>402</v>
       </c>
       <c r="I3" s="3">
@@ -1237,19 +1238,19 @@
       <c r="K3" s="2">
         <v>602</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>602</v>
       </c>
       <c r="M3" s="3">
         <v>503</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>503</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>503</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>401</v>
       </c>
       <c r="Q3" s="2">
@@ -1267,55 +1268,55 @@
       <c r="U3" s="3">
         <v>401</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>401</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>401</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="3">
         <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="3">
-        <v>603</v>
-      </c>
-      <c r="B4" s="4">
+        <v>604</v>
+      </c>
+      <c r="B4" s="3">
         <v>603</v>
       </c>
       <c r="C4" s="2">
         <v>602</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>603</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>402</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>402</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>402</v>
       </c>
       <c r="H4" s="2">
         <v>403</v>
       </c>
       <c r="I4" s="2">
-        <v>602</v>
-      </c>
-      <c r="J4" s="4">
+        <v>604</v>
+      </c>
+      <c r="J4" s="3">
         <v>603</v>
       </c>
       <c r="K4" s="2">
         <v>604</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>603</v>
       </c>
       <c r="M4" s="2">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="N4" s="2">
         <v>502</v>
@@ -1335,19 +1336,19 @@
       <c r="S4" s="2">
         <v>306</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>302</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>402</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>402</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>402</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="3">
         <v>402</v>
       </c>
     </row>
@@ -1355,13 +1356,13 @@
       <c r="A5" s="2">
         <v>602</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>604</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>604</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>604</v>
       </c>
       <c r="E5" s="2"/>
@@ -1369,19 +1370,19 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J5" s="2">
         <v>604</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>603</v>
       </c>
       <c r="L5" s="2">
         <v>604</v>
       </c>
       <c r="M5" s="2">
-        <v>502</v>
+        <v>402</v>
       </c>
       <c r="N5" s="2">
         <v>402</v>
@@ -1389,7 +1390,7 @@
       <c r="O5" s="2">
         <v>403</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>501</v>
       </c>
       <c r="Q5" s="2">
@@ -1401,7 +1402,7 @@
       <c r="S5" s="2">
         <v>501</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>303</v>
       </c>
       <c r="U5" s="8">
@@ -1430,32 +1431,32 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>501</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="M6" s="6">
+        <v>401</v>
+      </c>
+      <c r="N6" s="3">
         <v>401</v>
       </c>
       <c r="O6" s="2">
         <v>501</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>503</v>
       </c>
       <c r="Q6" s="2">
         <v>305</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>303</v>
       </c>
       <c r="S6" s="2">
         <v>201</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>304</v>
       </c>
       <c r="U6" s="8">
-        <v>504</v>
+        <v>403</v>
       </c>
       <c r="V6" s="2">
         <v>501</v>
@@ -1480,13 +1481,13 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="3">
-        <v>401</v>
+      <c r="M7" s="5">
+        <v>501</v>
       </c>
       <c r="N7" s="2">
         <v>403</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>401</v>
       </c>
       <c r="P7" s="2">
@@ -1505,7 +1506,7 @@
         <v>305</v>
       </c>
       <c r="U7" s="2">
-        <v>403</v>
+        <v>504</v>
       </c>
       <c r="V7" s="2">
         <v>502</v>
@@ -1545,10 +1546,10 @@
       <c r="Q8" s="3">
         <v>303</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>304</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>303</v>
       </c>
       <c r="T8" s="2">
@@ -1587,10 +1588,10 @@
       <c r="Q9" s="2">
         <v>306</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>302</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>302</v>
       </c>
       <c r="T9" s="2">
@@ -1624,7 +1625,7 @@
       <c r="R10" s="2">
         <v>504</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>304</v>
       </c>
       <c r="T10" s="2">
@@ -1818,8 +1819,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1873,4 +1874,65 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.451886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.4963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.6119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.5297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/experiment/Experiment Record.xlsx
+++ b/experiment/Experiment Record.xlsx
@@ -696,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,9 +713,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1402,7 @@
       <c r="T5" s="3">
         <v>303</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <v>501</v>
       </c>
       <c r="V5" s="2">
@@ -1431,7 +1428,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>401</v>
       </c>
       <c r="N6" s="3">
@@ -1455,7 +1452,7 @@
       <c r="T6" s="3">
         <v>304</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <v>403</v>
       </c>
       <c r="V6" s="2">
@@ -1716,7 +1713,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1882,7 +1879,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1928,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5297</v>
+        <v>0.5866</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/Experiment Record.xlsx
+++ b/experiment/Experiment Record.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="MRR" sheetId="2" r:id="rId2"/>
-    <sheet name="score2" sheetId="3" r:id="rId3"/>
-    <sheet name="auto evalulation" sheetId="4" r:id="rId4"/>
+    <sheet name="score2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>vote/603,604</t>
   </si>
@@ -34,7 +32,7 @@
     <t>page rank/302,303,304</t>
   </si>
   <si>
-    <t>movie rating401/402</t>
+    <t>movie rating/401，402</t>
   </si>
   <si>
     <t>IS</t>
@@ -43,10 +41,10 @@
     <t>RS</t>
   </si>
   <si>
-    <t>IS/RS</t>
+    <t>IS+RS</t>
   </si>
   <si>
-    <t>IS/RS/ITF</t>
+    <t>IS+RS+IPF</t>
   </si>
   <si>
     <t>MRR</t>
@@ -65,10 +63,30 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -554,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,141 +584,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -709,16 +730,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1071,669 +1101,653 @@
   <sheetPr/>
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="10.6018518518519" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="12" max="12" width="9.99074074074074" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
     <col min="16" max="16" width="10.2037037037037" customWidth="1"/>
-    <col min="20" max="20" width="10.9074074074074" customWidth="1"/>
-    <col min="24" max="24" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="10.9259259259259" customWidth="1"/>
+    <col min="24" max="24" width="10.462962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
+        <v>602</v>
+      </c>
+      <c r="B3" s="3">
+        <v>602</v>
+      </c>
+      <c r="C3" s="6">
         <v>603</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="7">
+        <v>603</v>
+      </c>
+      <c r="E3" s="3">
+        <v>403</v>
+      </c>
+      <c r="F3" s="3">
+        <v>403</v>
+      </c>
+      <c r="G3" s="3">
+        <v>403</v>
+      </c>
+      <c r="H3" s="5">
+        <v>403</v>
+      </c>
+      <c r="I3" s="5">
         <v>602</v>
       </c>
-      <c r="C3" s="3">
+      <c r="J3" s="3">
+        <v>602</v>
+      </c>
+      <c r="K3" s="7">
         <v>603</v>
       </c>
-      <c r="D3" s="2">
-        <v>602</v>
-      </c>
-      <c r="E3" s="2">
-        <v>403</v>
-      </c>
-      <c r="F3" s="2">
-        <v>403</v>
-      </c>
-      <c r="G3" s="2">
-        <v>403</v>
-      </c>
-      <c r="H3" s="3">
-        <v>402</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="L3" s="8">
         <v>603</v>
       </c>
-      <c r="J3" s="2">
-        <v>602</v>
-      </c>
-      <c r="K3" s="2">
-        <v>602</v>
-      </c>
-      <c r="L3" s="4">
-        <v>602</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="M3" s="7">
         <v>503</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <v>503</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="6">
         <v>503</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="6">
+        <v>503</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>501</v>
+      </c>
+      <c r="R3" s="3">
+        <v>306</v>
+      </c>
+      <c r="S3" s="3">
+        <v>501</v>
+      </c>
+      <c r="T3" s="3">
+        <v>306</v>
+      </c>
+      <c r="U3" s="6">
         <v>401</v>
       </c>
-      <c r="Q3" s="2">
-        <v>501</v>
-      </c>
-      <c r="R3" s="2">
-        <v>306</v>
-      </c>
-      <c r="S3" s="2">
-        <v>301</v>
-      </c>
-      <c r="T3" s="2">
-        <v>301</v>
-      </c>
-      <c r="U3" s="3">
+      <c r="V3" s="6">
         <v>401</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="6">
         <v>401</v>
       </c>
-      <c r="W3" s="3">
-        <v>401</v>
-      </c>
-      <c r="X3" s="3">
+      <c r="X3" s="6">
         <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>604</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>603</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>602</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
+        <v>602</v>
+      </c>
+      <c r="E4" s="6">
+        <v>402</v>
+      </c>
+      <c r="F4" s="6">
+        <v>402</v>
+      </c>
+      <c r="G4" s="6">
+        <v>402</v>
+      </c>
+      <c r="H4" s="7">
+        <v>402</v>
+      </c>
+      <c r="I4" s="3">
+        <v>604</v>
+      </c>
+      <c r="J4" s="6">
         <v>603</v>
       </c>
-      <c r="E4" s="3">
+      <c r="K4" s="3">
+        <v>602</v>
+      </c>
+      <c r="L4" s="4">
+        <v>602</v>
+      </c>
+      <c r="M4" s="5">
         <v>402</v>
       </c>
-      <c r="F4" s="3">
+      <c r="N4" s="3">
+        <v>502</v>
+      </c>
+      <c r="O4" s="3">
+        <v>502</v>
+      </c>
+      <c r="P4" s="5">
+        <v>502</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>301</v>
+      </c>
+      <c r="R4" s="3">
+        <v>301</v>
+      </c>
+      <c r="S4" s="3">
+        <v>301</v>
+      </c>
+      <c r="T4" s="5">
+        <v>301</v>
+      </c>
+      <c r="U4" s="6">
         <v>402</v>
       </c>
-      <c r="G4" s="3">
+      <c r="V4" s="6">
         <v>402</v>
       </c>
-      <c r="H4" s="2">
+      <c r="W4" s="6">
+        <v>402</v>
+      </c>
+      <c r="X4" s="5">
         <v>403</v>
-      </c>
-      <c r="I4" s="2">
-        <v>604</v>
-      </c>
-      <c r="J4" s="3">
-        <v>603</v>
-      </c>
-      <c r="K4" s="2">
-        <v>604</v>
-      </c>
-      <c r="L4" s="3">
-        <v>603</v>
-      </c>
-      <c r="M4" s="2">
-        <v>502</v>
-      </c>
-      <c r="N4" s="2">
-        <v>502</v>
-      </c>
-      <c r="O4" s="2">
-        <v>402</v>
-      </c>
-      <c r="P4" s="2">
-        <v>402</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>301</v>
-      </c>
-      <c r="R4" s="2">
-        <v>501</v>
-      </c>
-      <c r="S4" s="2">
-        <v>306</v>
-      </c>
-      <c r="T4" s="3">
-        <v>302</v>
-      </c>
-      <c r="U4" s="3">
-        <v>402</v>
-      </c>
-      <c r="V4" s="3">
-        <v>402</v>
-      </c>
-      <c r="W4" s="3">
-        <v>402</v>
-      </c>
-      <c r="X4" s="3">
-        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="2">
-        <v>602</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="7">
+        <v>603</v>
+      </c>
+      <c r="B5" s="6">
         <v>604</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>604</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>604</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <v>602</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="7">
+        <v>603</v>
+      </c>
+      <c r="J5" s="3">
         <v>604</v>
       </c>
-      <c r="K5" s="3">
-        <v>603</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5" s="5">
         <v>604</v>
       </c>
-      <c r="M5" s="2">
+      <c r="L5" s="3">
+        <v>604</v>
+      </c>
+      <c r="M5" s="5">
+        <v>502</v>
+      </c>
+      <c r="N5" s="3">
         <v>402</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="3">
         <v>402</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="5">
+        <v>201</v>
+      </c>
+      <c r="R5" s="3">
+        <v>501</v>
+      </c>
+      <c r="S5" s="3">
+        <v>306</v>
+      </c>
+      <c r="T5" s="6">
+        <v>303</v>
+      </c>
+      <c r="U5" s="10">
+        <v>501</v>
+      </c>
+      <c r="V5" s="3">
         <v>403</v>
       </c>
-      <c r="P5" s="5">
+      <c r="W5" s="3">
         <v>501</v>
       </c>
-      <c r="Q5" s="2">
-        <v>201</v>
-      </c>
-      <c r="R5" s="2">
-        <v>301</v>
-      </c>
-      <c r="S5" s="2">
-        <v>501</v>
-      </c>
-      <c r="T5" s="3">
-        <v>303</v>
-      </c>
-      <c r="U5" s="7">
-        <v>501</v>
-      </c>
-      <c r="V5" s="2">
-        <v>403</v>
-      </c>
-      <c r="W5" s="2">
-        <v>501</v>
-      </c>
-      <c r="X5" s="2">
-        <v>403</v>
+      <c r="X5" s="7">
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5">
+        <v>501</v>
+      </c>
+      <c r="N6" s="6">
         <v>401</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="7">
         <v>401</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="5">
+        <v>504</v>
+      </c>
+      <c r="R6" s="7">
+        <v>303</v>
+      </c>
+      <c r="S6" s="3">
+        <v>201</v>
+      </c>
+      <c r="T6" s="5">
+        <v>305</v>
+      </c>
+      <c r="U6" s="10">
+        <v>504</v>
+      </c>
+      <c r="V6" s="3">
         <v>501</v>
       </c>
-      <c r="P6" s="3">
-        <v>503</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>305</v>
-      </c>
-      <c r="R6" s="3">
-        <v>303</v>
-      </c>
-      <c r="S6" s="2">
-        <v>201</v>
-      </c>
-      <c r="T6" s="3">
-        <v>304</v>
-      </c>
-      <c r="U6" s="7">
+      <c r="W6" s="3">
         <v>403</v>
       </c>
-      <c r="V6" s="2">
-        <v>501</v>
-      </c>
-      <c r="W6" s="2">
-        <v>403</v>
-      </c>
-      <c r="X6" s="2">
-        <v>501</v>
-      </c>
+      <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="5">
-        <v>501</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="7">
+        <v>401</v>
+      </c>
+      <c r="N7" s="3">
         <v>403</v>
       </c>
-      <c r="O7" s="3">
-        <v>401</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="O7" s="5">
         <v>403</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5">
+        <v>305</v>
+      </c>
+      <c r="R7" s="5">
+        <v>502</v>
+      </c>
+      <c r="S7" s="7">
+        <v>303</v>
+      </c>
+      <c r="T7" s="3">
+        <v>803</v>
+      </c>
+      <c r="U7" s="3">
+        <v>403</v>
+      </c>
+      <c r="V7" s="3">
+        <v>502</v>
+      </c>
+      <c r="W7" s="3">
         <v>504</v>
       </c>
-      <c r="R7" s="2">
-        <v>502</v>
-      </c>
-      <c r="S7" s="2">
-        <v>305</v>
-      </c>
-      <c r="T7" s="2">
-        <v>305</v>
-      </c>
-      <c r="U7" s="2">
-        <v>504</v>
-      </c>
-      <c r="V7" s="2">
-        <v>502</v>
-      </c>
-      <c r="W7" s="2">
-        <v>504</v>
-      </c>
-      <c r="X7" s="2">
-        <v>504</v>
-      </c>
+      <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5">
         <v>403</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="3">
         <v>501</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
+        <v>501</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5">
+        <v>503</v>
+      </c>
+      <c r="R8" s="7">
+        <v>304</v>
+      </c>
+      <c r="S8" s="5">
+        <v>504</v>
+      </c>
+      <c r="T8" s="3">
+        <v>501</v>
+      </c>
+      <c r="U8" s="3">
         <v>502</v>
       </c>
-      <c r="P8" s="2">
+      <c r="V8" s="3">
+        <v>504</v>
+      </c>
+      <c r="W8" s="3">
         <v>502</v>
       </c>
-      <c r="Q8" s="3">
-        <v>303</v>
-      </c>
-      <c r="R8" s="3">
-        <v>304</v>
-      </c>
-      <c r="S8" s="3">
-        <v>303</v>
-      </c>
-      <c r="T8" s="2">
-        <v>306</v>
-      </c>
-      <c r="U8" s="2">
-        <v>502</v>
-      </c>
-      <c r="V8" s="2">
-        <v>504</v>
-      </c>
-      <c r="W8" s="2">
-        <v>502</v>
-      </c>
-      <c r="X8" s="2">
-        <v>502</v>
-      </c>
+      <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2">
-        <v>306</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="7">
+        <v>303</v>
+      </c>
+      <c r="R9" s="7">
         <v>302</v>
       </c>
-      <c r="S9" s="3">
-        <v>302</v>
-      </c>
-      <c r="T9" s="2">
-        <v>501</v>
-      </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="S9" s="5">
+        <v>502</v>
+      </c>
+      <c r="T9" s="7">
+        <v>304</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="5">
+        <v>306</v>
+      </c>
+      <c r="R10" s="3">
+        <v>504</v>
+      </c>
+      <c r="S10" s="5">
         <v>503</v>
       </c>
-      <c r="R10" s="2">
-        <v>504</v>
-      </c>
-      <c r="S10" s="3">
-        <v>304</v>
-      </c>
-      <c r="T10" s="2">
-        <v>502</v>
-      </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
+      <c r="T10" s="7">
+        <v>302</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="5">
         <v>502</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="3">
         <v>201</v>
       </c>
-      <c r="S11" s="2">
-        <v>503</v>
-      </c>
-      <c r="T11" s="2">
-        <v>503</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="S11" s="3">
+        <v>305</v>
+      </c>
+      <c r="T11" s="3">
+        <v>504</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="7">
         <v>302</v>
       </c>
-      <c r="R12" s="2">
-        <v>503</v>
-      </c>
-      <c r="S12" s="2">
-        <v>504</v>
-      </c>
-      <c r="T12" s="2">
-        <v>504</v>
-      </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="R12" s="3">
+        <v>305</v>
+      </c>
+      <c r="S12" s="7">
+        <v>304</v>
+      </c>
+      <c r="T12" s="3">
+        <v>502</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="7">
         <v>304</v>
       </c>
-      <c r="R13" s="2">
-        <v>305</v>
-      </c>
-      <c r="S13" s="2">
-        <v>502</v>
-      </c>
-      <c r="T13" s="2">
-        <v>201</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="R13" s="3">
+        <v>503</v>
+      </c>
+      <c r="S13" s="7">
+        <v>302</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1757,13 +1771,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.3611111111111" customWidth="1"/>
+    <col min="1" max="1" width="14.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1778,30 +1792,32 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>0.4518</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>0.85714</v>
+        <v>0.4963</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.88353</v>
+        <v>0.6119</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0278</v>
+        <v>0.5889</v>
       </c>
     </row>
   </sheetData>
@@ -1809,127 +1825,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="14.3611111111111" customWidth="1"/>
-    <col min="2" max="2" width="14.6388888888889" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.61986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.4991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.6088</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="9.66666666666667"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.451886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.4963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.6119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.5866</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>